--- a/data/trans_bre/P18_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>44,1%</t>
+          <t>-13,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>75,41%</t>
+          <t>271,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-17,4%</t>
+          <t>62,76%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-21,47%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>74,09%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 6,39</t>
+          <t>-17,01; 5,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 4,06</t>
+          <t>0,93; 8,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 5,81</t>
+          <t>-1,9; 7,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,09</t>
+          <t>-6,33; 3,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 91,44</t>
+          <t>-1,51; 8,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,6; 294,38</t>
+          <t>-73,94; 76,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 266,83</t>
+          <t>-3,08; 1606,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-63,11; 99,2</t>
+          <t>-29,99; 408,35</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-78,94; 121,02</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-49,17; 564,6</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>209,45%</t>
+          <t>38,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>104,2%</t>
+          <t>166,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>68,26%</t>
+          <t>39,47%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-40,85%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-32,42%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 6,57</t>
+          <t>-3,92; 8,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 8,28</t>
+          <t>-1,0; 5,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 7,06</t>
+          <t>-3,7; 5,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 8,53</t>
+          <t>-6,18; 1,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,85; 141,66</t>
+          <t>-4,69; 1,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 1236,03</t>
+          <t>-42,22; 254,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,43; 627,53</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,37; 402,45</t>
+          <t>-69,1; 539,79</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-86,51; 85,88</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-90,61; 393,21</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>-4,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>-50,24%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-43,33%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>190,57%</t>
+          <t>-36,48%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>105,69%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -868,27 +934,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 11,34</t>
+          <t>-18,18; 5,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 0,0</t>
+          <t>-23,03; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 5,19</t>
+          <t>-21,59; 9,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 9,93</t>
+          <t>-5,58; 14,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-79,59; 329,8</t>
+          <t>-26,36; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -898,10 +964,20 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-87,73; 153,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 325,52</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>71,23%</t>
+          <t>-2,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,85%</t>
+          <t>114,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>28,1%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-21,63%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 4,56</t>
+          <t>-8,19; 4,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 3,83</t>
+          <t>0,01; 4,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 4,21</t>
+          <t>-2,36; 4,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,46</t>
+          <t>-4,25; 1,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 65,78</t>
+          <t>-2,64; 3,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 209,9</t>
+          <t>-53,56; 65,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 142,41</t>
+          <t>-16,85; 484,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,14; 133,89</t>
+          <t>-34,11; 133,79</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-63,37; 83,6</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-59,19; 174,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P18_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,66</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,08</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,83</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,08</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,45</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-13,79%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>271,7%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>62,76%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-21,47%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>74,09%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.660607516217712</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.880573090896377</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.784630705079254</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-1.369110360718023</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>2.93612064149772</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1379262133567812</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.764576151375433</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.5849538372580165</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.2668120250280565</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.8966196413877419</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-17,01; 5,2</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 8,29</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,9; 7,88</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,33; 3,13</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 8,18</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-73,94; 76,27</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-3,08; 1606,15</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-29,99; 408,35</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-78,94; 121,02</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-49,17; 564,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-17.0089215124831</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.8350856381286431</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.173114267024903</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-6.773176667532939</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.9731407927219349</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.7394017074993093</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.005898143208028013</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3415360194486495</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.8120114779295037</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.4324837593527806</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.204099497069343</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.695201163342309</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.065723851498639</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.769053186374703</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>10.30566546601271</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.7626662478342056</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>17.06857414483522</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>4.022397955786521</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.077027010551456</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>6.6245096405804</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,84</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>38,25%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>166,13%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>39,47%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-40,85%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-32,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; 8,44</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 5,47</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,7; 5,42</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,18; 1,66</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 1,87</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-42,22; 254,32</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-69,1; 539,79</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-86,51; 85,88</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-90,61; 393,21</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.46581907028639</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.389064992363898</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.4772472683929579</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.68520567606947</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-1.1211120804566</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3825132681773855</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.677451298413019</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1017553925167198</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.3992945939504771</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.3933946754014722</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,73</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-6,24</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,88</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,83</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-5,77</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-50,24%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-36,48%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>105,69%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.920076834455066</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.166466611926996</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-8.045220938826015</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.901870161132778</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-5.225882118887546</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4222307836610305</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.8191981031677615</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.8665335817743871</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.9230557876375781</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-18,18; 5,66</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-23,03; 0,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-21,59; 9,53</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,58; 14,68</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-26,36; 0,0</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 325,52</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.44178553483216</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.03919100409246</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.050190710519433</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.568083598936356</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.633690154822981</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.543173124426341</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>3.188975365171293</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.9138487526024706</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>3.072686463486499</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +877,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-2,8%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>114,11%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>28,1%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-21,63%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>9,04%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-4.727443898769887</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-6.022988150306949</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.224140760561069</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.824324258687474</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-4.756709649844549</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.5024084041670115</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3763836519660522</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.6382680998956382</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-8,19; 4,34</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 4,91</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 4,48</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,25; 1,95</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-2,64; 3,55</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-53,56; 65,74</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-16,85; 484,7</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-34,11; 133,79</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-63,37; 83,6</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-59,19; 174,94</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-18.17935349101565</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-22.20108031496293</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-23.07040467070322</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.136010924424218</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-22.90421208406623</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.657829623608655</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.885500936266915</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.20704280180842</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>2.854739441390477</v>
+      </c>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.2659950833843225</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.286327054935075</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.6292881356099913</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.15568692999737</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.5406513152794022</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.0279880582443463</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.222038196569038</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1104436413536477</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.2563245946040523</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.1649844427381252</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.190399216491489</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.06981101786092053</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.758429416486968</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.309818242020256</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-2.217709233207018</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.5355781677116406</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.132885936830775</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4572256639128049</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.656256195198915</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.5230419874838816</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.342451921706141</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.006599502392331</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.056486358042651</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.673865658295716</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.081618883915826</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.6573687513823572</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>5.285086645791629</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.023855772364886</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.7552585115220102</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>2.611622846046414</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1095,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
